--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl2-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl2-Cxcr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.717751000000001</v>
+        <v>1.389617666666667</v>
       </c>
       <c r="H2">
-        <v>14.153253</v>
+        <v>4.168853</v>
       </c>
       <c r="I2">
-        <v>0.03525619328121486</v>
+        <v>0.01005942246918146</v>
       </c>
       <c r="J2">
-        <v>0.03525619328121486</v>
+        <v>0.01005942246918146</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N2">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O2">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P2">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q2">
-        <v>0.06110116578466668</v>
+        <v>0.02765107553722223</v>
       </c>
       <c r="R2">
-        <v>0.549910492062</v>
+        <v>0.248859679835</v>
       </c>
       <c r="S2">
-        <v>0.01350771243786063</v>
+        <v>0.005487952260514773</v>
       </c>
       <c r="T2">
-        <v>0.01350771243786063</v>
+        <v>0.005487952260514773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.717751000000001</v>
+        <v>1.389617666666667</v>
       </c>
       <c r="H3">
-        <v>14.153253</v>
+        <v>4.168853</v>
       </c>
       <c r="I3">
-        <v>0.03525619328121486</v>
+        <v>0.01005942246918146</v>
       </c>
       <c r="J3">
-        <v>0.03525619328121486</v>
+        <v>0.01005942246918146</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.021853</v>
       </c>
       <c r="O3">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P3">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q3">
-        <v>0.03436567086766668</v>
+        <v>0.01012243828988889</v>
       </c>
       <c r="R3">
-        <v>0.309291037809</v>
+        <v>0.09110194460900001</v>
       </c>
       <c r="S3">
-        <v>0.007597262570251925</v>
+        <v>0.002009016178055605</v>
       </c>
       <c r="T3">
-        <v>0.007597262570251925</v>
+        <v>0.002009016178055605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.717751000000001</v>
+        <v>1.389617666666667</v>
       </c>
       <c r="H4">
-        <v>14.153253</v>
+        <v>4.168853</v>
       </c>
       <c r="I4">
-        <v>0.03525619328121486</v>
+        <v>0.01005942246918146</v>
       </c>
       <c r="J4">
-        <v>0.03525619328121486</v>
+        <v>0.01005942246918146</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N4">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O4">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P4">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q4">
-        <v>0.06401201815166667</v>
+        <v>0.012910937741</v>
       </c>
       <c r="R4">
-        <v>0.576108163365</v>
+        <v>0.116198439669</v>
       </c>
       <c r="S4">
-        <v>0.0141512182731023</v>
+        <v>0.002562454030611077</v>
       </c>
       <c r="T4">
-        <v>0.0141512182731023</v>
+        <v>0.002562454030611078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>6.477913</v>
       </c>
       <c r="I5">
-        <v>0.01613668269668424</v>
+        <v>0.01563117327130572</v>
       </c>
       <c r="J5">
-        <v>0.01613668269668424</v>
+        <v>0.01563117327130572</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N5">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O5">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P5">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q5">
-        <v>0.02796587018911111</v>
+        <v>0.04296655739277778</v>
       </c>
       <c r="R5">
-        <v>0.251692831702</v>
+        <v>0.386699016535</v>
       </c>
       <c r="S5">
-        <v>0.006182450493994493</v>
+        <v>0.008527639926801936</v>
       </c>
       <c r="T5">
-        <v>0.006182450493994492</v>
+        <v>0.008527639926801936</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.477913</v>
       </c>
       <c r="I6">
-        <v>0.01613668269668424</v>
+        <v>0.01563117327130572</v>
       </c>
       <c r="J6">
-        <v>0.01613668269668424</v>
+        <v>0.01563117327130572</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.021853</v>
       </c>
       <c r="O6">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P6">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q6">
         <v>0.01572909253211111</v>
@@ -821,10 +821,10 @@
         <v>0.141561832789</v>
       </c>
       <c r="S6">
-        <v>0.003477250492748794</v>
+        <v>0.003121777624933457</v>
       </c>
       <c r="T6">
-        <v>0.003477250492748794</v>
+        <v>0.003121777624933457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.477913</v>
       </c>
       <c r="I7">
-        <v>0.01613668269668424</v>
+        <v>0.01563117327130572</v>
       </c>
       <c r="J7">
-        <v>0.01613668269668424</v>
+        <v>0.01563117327130572</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N7">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O7">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P7">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q7">
-        <v>0.02929816096277778</v>
+        <v>0.020062096561</v>
       </c>
       <c r="R7">
-        <v>0.263683448665</v>
+        <v>0.180558869049</v>
       </c>
       <c r="S7">
-        <v>0.006476981709940954</v>
+        <v>0.003981755719570322</v>
       </c>
       <c r="T7">
-        <v>0.006476981709940954</v>
+        <v>0.003981755719570323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.928343666666667</v>
+        <v>0.6734466666666666</v>
       </c>
       <c r="H8">
-        <v>5.785031</v>
+        <v>2.02034</v>
       </c>
       <c r="I8">
-        <v>0.01441069209133898</v>
+        <v>0.004875070814774726</v>
       </c>
       <c r="J8">
-        <v>0.01441069209133898</v>
+        <v>0.004875070814774726</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N8">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O8">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P8">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q8">
-        <v>0.02497462160822222</v>
+        <v>0.01340046625555556</v>
       </c>
       <c r="R8">
-        <v>0.224771594474</v>
+        <v>0.1206041963</v>
       </c>
       <c r="S8">
-        <v>0.005521171365488154</v>
+        <v>0.002659611521444487</v>
       </c>
       <c r="T8">
-        <v>0.005521171365488153</v>
+        <v>0.002659611521444487</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.928343666666667</v>
+        <v>0.6734466666666666</v>
       </c>
       <c r="H9">
-        <v>5.785031</v>
+        <v>2.02034</v>
       </c>
       <c r="I9">
-        <v>0.01441069209133898</v>
+        <v>0.004875070814774726</v>
       </c>
       <c r="J9">
-        <v>0.01441069209133898</v>
+        <v>0.004875070814774726</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,22 +995,22 @@
         <v>0.021853</v>
       </c>
       <c r="O9">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P9">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q9">
-        <v>0.01404669804922222</v>
+        <v>0.004905610002222222</v>
       </c>
       <c r="R9">
-        <v>0.126420282443</v>
+        <v>0.04415049002</v>
       </c>
       <c r="S9">
-        <v>0.003105321404488923</v>
+        <v>0.0009736240988043619</v>
       </c>
       <c r="T9">
-        <v>0.003105321404488923</v>
+        <v>0.000973624098804362</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.928343666666667</v>
+        <v>0.6734466666666666</v>
       </c>
       <c r="H10">
-        <v>5.785031</v>
+        <v>2.02034</v>
       </c>
       <c r="I10">
-        <v>0.01441069209133898</v>
+        <v>0.004875070814774726</v>
       </c>
       <c r="J10">
-        <v>0.01441069209133898</v>
+        <v>0.004875070814774726</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N10">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O10">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P10">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q10">
-        <v>0.02616440965055556</v>
+        <v>0.006256992979999999</v>
       </c>
       <c r="R10">
-        <v>0.235479686855</v>
+        <v>0.05631293682</v>
       </c>
       <c r="S10">
-        <v>0.0057841993213619</v>
+        <v>0.001241835194525876</v>
       </c>
       <c r="T10">
-        <v>0.0057841993213619</v>
+        <v>0.001241835194525876</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>125.0079983333333</v>
+        <v>133.9185306666667</v>
       </c>
       <c r="H11">
-        <v>375.023995</v>
+        <v>401.755592</v>
       </c>
       <c r="I11">
-        <v>0.9341964319307619</v>
+        <v>0.9694343334447382</v>
       </c>
       <c r="J11">
-        <v>0.934196431930762</v>
+        <v>0.9694343334447382</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1113,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N11">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O11">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P11">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q11">
-        <v>1.619020255747778</v>
+        <v>2.664755562715555</v>
       </c>
       <c r="R11">
-        <v>14.57118230173</v>
+        <v>23.98280006444</v>
       </c>
       <c r="S11">
-        <v>0.3579188672567135</v>
+        <v>0.5288782092558434</v>
       </c>
       <c r="T11">
-        <v>0.3579188672567135</v>
+        <v>0.5288782092558434</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>125.0079983333333</v>
+        <v>133.9185306666667</v>
       </c>
       <c r="H12">
-        <v>375.023995</v>
+        <v>401.755592</v>
       </c>
       <c r="I12">
-        <v>0.9341964319307619</v>
+        <v>0.9694343334447382</v>
       </c>
       <c r="J12">
-        <v>0.934196431930762</v>
+        <v>0.9694343334447382</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.021853</v>
       </c>
       <c r="O12">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P12">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q12">
-        <v>0.9105999291927778</v>
+        <v>0.9755072168862223</v>
       </c>
       <c r="R12">
-        <v>8.195399362735001</v>
+        <v>8.779564951975999</v>
       </c>
       <c r="S12">
-        <v>0.2013074845874545</v>
+        <v>0.1936104448759184</v>
       </c>
       <c r="T12">
-        <v>0.2013074845874546</v>
+        <v>0.1936104448759184</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>125.0079983333333</v>
+        <v>133.9185306666667</v>
       </c>
       <c r="H13">
-        <v>375.023995</v>
+        <v>401.755592</v>
       </c>
       <c r="I13">
-        <v>0.9341964319307619</v>
+        <v>0.9694343334447382</v>
       </c>
       <c r="J13">
-        <v>0.934196431930762</v>
+        <v>0.9694343334447382</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N13">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O13">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P13">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q13">
-        <v>1.696150190719445</v>
+        <v>1.244237068424</v>
       </c>
       <c r="R13">
-        <v>15.265351716475</v>
+        <v>11.198133615816</v>
       </c>
       <c r="S13">
-        <v>0.3749700800865939</v>
+        <v>0.2469456793129763</v>
       </c>
       <c r="T13">
-        <v>0.3749700800865939</v>
+        <v>0.2469456793129764</v>
       </c>
     </row>
   </sheetData>
